--- a/ig/nr-update/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/nr-update/StructureDefinition-cds-ihe-careteam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:30:52+00:00</t>
+    <t>2024-02-07T13:43:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -979,7 +979,7 @@
     <t>CareTeam.participant.member</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|http://interopsante.org/fhir/StructureDefinition/FrOrganization|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization-orga-int)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-fr-related-person|http://interopsante.org/fhir/StructureDefinition/FrOrganization|http://interop.esante.gouv.fr/ig/fhir/cds/StructureDefinition/cds-organization-orga-int)
 </t>
   </si>
   <si>

--- a/ig/nr-update/StructureDefinition-cds-ihe-careteam.xlsx
+++ b/ig/nr-update/StructureDefinition-cds-ihe-careteam.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T13:43:56+00:00</t>
+    <t>2024-02-07T14:01:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
